--- a/Test/SBi.xlsx
+++ b/Test/SBi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730" codeName="{3D1A710C-6663-3D7B-7F91-EC182F24A4BC}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOLN\Documents\GitHub\energyMapper\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F96750E-EB32-4C5B-92FE-9EA2A80981BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52479D4F-A303-47B5-8F60-60DC9051DD9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test/SBi.xlsx
+++ b/Test/SBi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOLN\Documents\GitHub\energyMapper\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52479D4F-A303-47B5-8F60-60DC9051DD9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE2D09D-0B4E-43ED-B878-7E4DD1718326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19842,7 +19842,7 @@
   <dimension ref="B1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
